--- a/Cockpit x SKU.xlsx
+++ b/Cockpit x SKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/Cockpit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1557DADE-DD89-4AC3-ADC3-7334696754E9}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC04EE67-BD7B-44F5-9F59-5A4B602F4951}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="133">
   <si>
     <t>DOH</t>
   </si>
@@ -405,6 +405,36 @@
   </si>
   <si>
     <t>TOSTITOS 77GX26</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Quaker</t>
+  </si>
+  <si>
+    <t>Twistos</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Cheetos</t>
+  </si>
+  <si>
+    <t>Doritos</t>
+  </si>
+  <si>
+    <t>Lays</t>
+  </si>
+  <si>
+    <t>Pehuamar</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>Tostitos</t>
   </si>
 </sst>
 </file>
@@ -428,12 +458,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -466,13 +502,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,18 +790,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +828,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>300030738</v>
       </c>
@@ -812,8 +854,11 @@
       <c r="H2">
         <v>0.42638526343618799</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>300051958</v>
       </c>
@@ -835,8 +880,11 @@
       <c r="H3">
         <v>0.60234228186901495</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>300052628</v>
       </c>
@@ -858,8 +906,11 @@
       <c r="H4">
         <v>0.74120705263935505</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>300052629</v>
       </c>
@@ -881,8 +932,11 @@
       <c r="H5">
         <v>0.39306195210877698</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>300058444</v>
       </c>
@@ -904,8 +958,11 @@
       <c r="H6">
         <v>0.69850603132827804</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>300058445</v>
       </c>
@@ -927,8 +984,11 @@
       <c r="H7">
         <v>0.39382778318651501</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>300051955</v>
       </c>
@@ -950,8 +1010,11 @@
       <c r="H8">
         <v>1.3006756556157899</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>300058446</v>
       </c>
@@ -973,8 +1036,11 @@
       <c r="H9">
         <v>0.96124386698824305</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>300052695</v>
       </c>
@@ -996,8 +1062,11 @@
       <c r="H10">
         <v>0.56440516590407797</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>300052696</v>
       </c>
@@ -1019,8 +1088,11 @@
       <c r="H11">
         <v>0.67072306376499702</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>300052694</v>
       </c>
@@ -1042,8 +1114,11 @@
       <c r="H12">
         <v>0.58439059184113096</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>300052867</v>
       </c>
@@ -1065,8 +1140,11 @@
       <c r="H13">
         <v>0.59276062642911898</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>300052698</v>
       </c>
@@ -1088,8 +1166,11 @@
       <c r="H14">
         <v>0.51203716107438801</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>300052697</v>
       </c>
@@ -1111,8 +1192,11 @@
       <c r="H15">
         <v>0.64562461471363997</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>300058397</v>
       </c>
@@ -1134,8 +1218,11 @@
       <c r="H16">
         <v>0.50552455523008399</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>300058394</v>
       </c>
@@ -1157,8 +1244,11 @@
       <c r="H17">
         <v>0.540878180967026</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>300052023</v>
       </c>
@@ -1180,8 +1270,11 @@
       <c r="H18">
         <v>0.33630130674664499</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>300058395</v>
       </c>
@@ -1203,8 +1296,11 @@
       <c r="H19">
         <v>0.63694272260038098</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>300054823</v>
       </c>
@@ -1226,8 +1322,11 @@
       <c r="H20">
         <v>0.61918071802378705</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>300052892</v>
       </c>
@@ -1249,8 +1348,11 @@
       <c r="H21">
         <v>0.67178610026891805</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>300050336</v>
       </c>
@@ -1272,8 +1374,11 @@
       <c r="H22">
         <v>0.31616024701276901</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>300052894</v>
       </c>
@@ -1295,8 +1400,11 @@
       <c r="H23">
         <v>0.78117258039425397</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>300059433</v>
       </c>
@@ -1318,8 +1426,11 @@
       <c r="H24">
         <v>0.71570989018742304</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>300054822</v>
       </c>
@@ -1341,8 +1452,11 @@
       <c r="H25">
         <v>0.98269385436133605</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>300058257</v>
       </c>
@@ -1364,8 +1478,11 @@
       <c r="H26">
         <v>6.9779441104032794E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>300058259</v>
       </c>
@@ -1387,8 +1504,11 @@
       <c r="H27">
         <v>1.0889800605914099</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>300054821</v>
       </c>
@@ -1410,8 +1530,11 @@
       <c r="H28">
         <v>0.59100212999753599</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>300058253</v>
       </c>
@@ -1427,8 +1550,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>300054910</v>
       </c>
@@ -1450,8 +1576,11 @@
       <c r="H30">
         <v>0.46219249242933302</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>300059545</v>
       </c>
@@ -1473,8 +1602,11 @@
       <c r="H31">
         <v>0.67590458012113397</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>300060190</v>
       </c>
@@ -1496,8 +1628,11 @@
       <c r="H32">
         <v>1.0439082294787501</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>300060191</v>
       </c>
@@ -1519,8 +1654,11 @@
       <c r="H33">
         <v>7.4113918173328505E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>300060192</v>
       </c>
@@ -1542,8 +1680,11 @@
       <c r="H34">
         <v>0.97011067945976903</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>300059547</v>
       </c>
@@ -1559,8 +1700,11 @@
       <c r="F35">
         <v>6.7021319999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>300059753</v>
       </c>
@@ -1579,8 +1723,11 @@
       <c r="H36">
         <v>0.69467159863495098</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>300059867</v>
       </c>
@@ -1599,8 +1746,11 @@
       <c r="H37">
         <v>0.14206020975153499</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>300052775</v>
       </c>
@@ -1616,8 +1766,11 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>300052773</v>
       </c>
@@ -1639,8 +1792,11 @@
       <c r="H39">
         <v>0.538883092763071</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>300052777</v>
       </c>
@@ -1662,8 +1818,11 @@
       <c r="H40">
         <v>0.56063374932175802</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>300051988</v>
       </c>
@@ -1685,8 +1844,11 @@
       <c r="H41">
         <v>0.50044822795061605</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>300052778</v>
       </c>
@@ -1702,8 +1864,11 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>300060195</v>
       </c>
@@ -1725,8 +1890,11 @@
       <c r="H43">
         <v>1.18126263605695</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>300052776</v>
       </c>
@@ -1748,8 +1916,11 @@
       <c r="H44">
         <v>0.47742977993279401</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>300059432</v>
       </c>
@@ -1771,8 +1942,11 @@
       <c r="H45">
         <v>0.57767025538709704</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>300060193</v>
       </c>
@@ -1794,8 +1968,11 @@
       <c r="H46">
         <v>1.0725604659905299</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>300060194</v>
       </c>
@@ -1817,8 +1994,11 @@
       <c r="H47">
         <v>3.3917083439799697E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>300060231</v>
       </c>
@@ -1840,8 +2020,11 @@
       <c r="H48">
         <v>0.80759509594385004</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>300052774</v>
       </c>
@@ -1857,8 +2040,11 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>300059431</v>
       </c>
@@ -1874,8 +2060,11 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>300060080</v>
       </c>
@@ -1897,8 +2086,11 @@
       <c r="H51">
         <v>1.4330779287375699</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>300060230</v>
       </c>
@@ -1920,8 +2112,11 @@
       <c r="H52">
         <v>0.28959736220571702</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>300052772</v>
       </c>
@@ -1943,8 +2138,11 @@
       <c r="H53">
         <v>0.53030463669776695</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>300054967</v>
       </c>
@@ -1966,8 +2164,11 @@
       <c r="H54">
         <v>0.55341416123531195</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>300056674</v>
       </c>
@@ -1989,8 +2190,11 @@
       <c r="H55">
         <v>0.49536334472320698</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>300058328</v>
       </c>
@@ -2006,8 +2210,11 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>300058651</v>
       </c>
@@ -2026,8 +2233,11 @@
       <c r="H57">
         <v>1.7007383693408401E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>300060232</v>
       </c>
@@ -2049,8 +2259,11 @@
       <c r="H58">
         <v>0.30237387016052197</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>300059430</v>
       </c>
@@ -2066,8 +2279,11 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>300060098</v>
       </c>
@@ -2089,8 +2305,11 @@
       <c r="H60">
         <v>5.6324732517498104</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>300060099</v>
       </c>
@@ -2112,8 +2331,11 @@
       <c r="H61">
         <v>3.88647828243881</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>300060233</v>
       </c>
@@ -2135,8 +2357,11 @@
       <c r="H62">
         <v>1.9048275190197701</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>300059801</v>
       </c>
@@ -2155,8 +2380,11 @@
       <c r="H63">
         <v>0.73062550347393795</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>300059811</v>
       </c>
@@ -2178,8 +2406,11 @@
       <c r="H64">
         <v>0.45442515704960401</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>300052759</v>
       </c>
@@ -2201,8 +2432,11 @@
       <c r="H65">
         <v>0.414729937352873</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>300052758</v>
       </c>
@@ -2224,8 +2458,11 @@
       <c r="H66">
         <v>0.84493218284112204</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>300060234</v>
       </c>
@@ -2247,8 +2484,11 @@
       <c r="H67">
         <v>4.4870493800950803E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>300052739</v>
       </c>
@@ -2264,8 +2504,11 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>300052656</v>
       </c>
@@ -2287,8 +2530,11 @@
       <c r="H69">
         <v>0.66064753406487398</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>300051086</v>
       </c>
@@ -2304,8 +2550,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>300052790</v>
       </c>
@@ -2327,8 +2576,11 @@
       <c r="H71">
         <v>0.44624323044515002</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>300052657</v>
       </c>
@@ -2344,8 +2596,11 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>300052738</v>
       </c>
@@ -2361,8 +2616,11 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>300060093</v>
       </c>
@@ -2384,8 +2642,11 @@
       <c r="H74">
         <v>2.56535548497435E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>300060091</v>
       </c>
@@ -2407,8 +2668,11 @@
       <c r="H75">
         <v>1.5624463171586299E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>300060092</v>
       </c>
@@ -2430,8 +2694,11 @@
       <c r="H76">
         <v>1.18042585319345E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>300060094</v>
       </c>
@@ -2453,8 +2720,11 @@
       <c r="H77">
         <v>0.11486860987804</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>300052666</v>
       </c>
@@ -2476,8 +2746,11 @@
       <c r="H78">
         <v>0.43648021013761401</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>300052664</v>
       </c>
@@ -2493,8 +2766,11 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>300052667</v>
       </c>
@@ -2516,8 +2792,11 @@
       <c r="H80">
         <v>0.63808905893899104</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>300052665</v>
       </c>
@@ -2539,8 +2818,11 @@
       <c r="H81">
         <v>0.27825140364358802</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>300060096</v>
       </c>
@@ -2562,8 +2844,11 @@
       <c r="H82">
         <v>0.64213131754175301</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>300060097</v>
       </c>
@@ -2585,8 +2870,11 @@
       <c r="H83">
         <v>0.109797089970866</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>300052720</v>
       </c>
@@ -2608,8 +2896,11 @@
       <c r="H84">
         <v>0.40248576991775298</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>300052669</v>
       </c>
@@ -2625,8 +2916,11 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>300052026</v>
       </c>
@@ -2642,8 +2936,11 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>300052721</v>
       </c>
@@ -2659,8 +2956,11 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>300060095</v>
       </c>
@@ -2682,8 +2982,11 @@
       <c r="H88">
         <v>0.502660018639974</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>300060196</v>
       </c>
@@ -2705,8 +3008,11 @@
       <c r="H89">
         <v>0.22922374104934601</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>300060197</v>
       </c>
@@ -2728,8 +3034,11 @@
       <c r="H90">
         <v>0.69466587165133598</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>300060198</v>
       </c>
@@ -2751,8 +3060,11 @@
       <c r="H91">
         <v>4.3715489309575799E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>300052642</v>
       </c>
@@ -2774,8 +3086,11 @@
       <c r="H92">
         <v>0.61109301441980501</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>300052622</v>
       </c>
@@ -2797,8 +3112,11 @@
       <c r="H93">
         <v>0.51052548323199098</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>300052641</v>
       </c>
@@ -2820,8 +3138,11 @@
       <c r="H94">
         <v>0.57414637004212898</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>300052643</v>
       </c>
@@ -2843,8 +3164,11 @@
       <c r="H95">
         <v>0.90899231990219997</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>300052621</v>
       </c>
@@ -2866,8 +3190,11 @@
       <c r="H96">
         <v>0.40995658388282502</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>300047036</v>
       </c>
@@ -2889,8 +3216,11 @@
       <c r="H97">
         <v>0.61868358557117697</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>300047496</v>
       </c>
@@ -2912,8 +3242,11 @@
       <c r="H98">
         <v>0.69451554479760003</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>300053042</v>
       </c>
@@ -2935,8 +3268,11 @@
       <c r="H99">
         <v>0.65668999175383802</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>300053043</v>
       </c>
@@ -2958,8 +3294,11 @@
       <c r="H100">
         <v>0.87584695295331605</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>300033488</v>
       </c>
@@ -2981,8 +3320,11 @@
       <c r="H101">
         <v>0.59233449477351896</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>300052821</v>
       </c>
@@ -3004,8 +3346,11 @@
       <c r="H102">
         <v>0.54694462835170998</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>300052820</v>
       </c>
@@ -3027,8 +3372,11 @@
       <c r="H103">
         <v>0.52190957779663405</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>300033489</v>
       </c>
@@ -3050,8 +3398,11 @@
       <c r="H104">
         <v>0.72610450392404302</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>300052756</v>
       </c>
@@ -3073,8 +3424,11 @@
       <c r="H105">
         <v>0.57939360955559105</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>300052757</v>
       </c>
@@ -3096,8 +3450,11 @@
       <c r="H106">
         <v>0.44723456480874402</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>300058720</v>
       </c>
@@ -3119,8 +3476,11 @@
       <c r="H107">
         <v>0.96204544613669296</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>300058721</v>
       </c>
@@ -3142,8 +3502,11 @@
       <c r="H108">
         <v>1.89933604890496</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>300058740</v>
       </c>
@@ -3165,8 +3528,11 @@
       <c r="H109">
         <v>4.7661136796301298</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>300055380</v>
       </c>
@@ -3182,8 +3548,11 @@
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>300055184</v>
       </c>
@@ -3199,8 +3568,11 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>300055183</v>
       </c>
@@ -3216,8 +3588,11 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>300060199</v>
       </c>
@@ -3233,8 +3608,11 @@
       <c r="F113">
         <v>6.1109559999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>300060200</v>
       </c>
@@ -3256,8 +3634,11 @@
       <c r="H114">
         <v>0.32952762296412502</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>300060201</v>
       </c>
@@ -3278,6 +3659,9 @@
       </c>
       <c r="H115">
         <v>0.81925763148790598</v>
+      </c>
+      <c r="I115" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Cockpit x SKU.xlsx
+++ b/Cockpit x SKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/Cockpit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC04EE67-BD7B-44F5-9F59-5A4B602F4951}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{207B2BD9-A082-45C5-9A26-5C2EE3350B6C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
   <si>
     <t>DOH</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>Tostitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUAKER BARRA CHISPAS DE CHOCO 20X156G   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUAKER BARRA FRUTILLA CON CREMA 20X180G </t>
   </si>
 </sst>
 </file>
@@ -790,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,25 +840,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>300030738</v>
+        <v>300030736</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="C2">
-        <v>0.72252579287434504</v>
+        <v>29.196743344376198</v>
       </c>
       <c r="D2">
-        <v>0.72252579287434504</v>
+        <v>29.196743344376198</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>6.0367940000000004</v>
+        <v>4.6991880000000004</v>
       </c>
       <c r="H2">
-        <v>0.42638526343618799</v>
+        <v>0.48268764731268499</v>
       </c>
       <c r="I2" t="s">
         <v>124</v>
@@ -860,25 +866,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>300051958</v>
+        <v>300030737</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="C3">
-        <v>1.92522997734992</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.92522997734992</v>
-      </c>
-      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>46.152430000000003</v>
+        <v>11.42244</v>
       </c>
       <c r="H3">
-        <v>0.60234228186901495</v>
+        <v>0.47716599955876299</v>
       </c>
       <c r="I3" t="s">
         <v>124</v>
@@ -886,25 +889,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>300052628</v>
+        <v>300030738</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>8.4858915303105693</v>
+        <v>0.72252579287434504</v>
       </c>
       <c r="D4">
-        <v>8.4858915303105693</v>
+        <v>0.72252579287434504</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>7.9862299999999999</v>
+        <v>6.0367940000000004</v>
       </c>
       <c r="H4">
-        <v>0.74120705263935505</v>
+        <v>0.42638526343618799</v>
       </c>
       <c r="I4" t="s">
         <v>124</v>
@@ -912,25 +915,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>300052629</v>
+        <v>300051958</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3.2776037760818699</v>
+        <v>1.92522997734992</v>
       </c>
       <c r="D5">
-        <v>3.2776037760818699</v>
+        <v>1.92522997734992</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8.4311900000000009</v>
+        <v>46.152430000000003</v>
       </c>
       <c r="H5">
-        <v>0.39306195210877698</v>
+        <v>0.60234228186901495</v>
       </c>
       <c r="I5" t="s">
         <v>124</v>
@@ -938,25 +941,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>300058444</v>
+        <v>300052628</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>17.156825929566502</v>
+        <v>8.4858915303105693</v>
       </c>
       <c r="D6">
-        <v>17.156825929566502</v>
+        <v>8.4858915303105693</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>84.311942000000002</v>
+        <v>7.9862299999999999</v>
       </c>
       <c r="H6">
-        <v>0.69850603132827804</v>
+        <v>0.74120705263935505</v>
       </c>
       <c r="I6" t="s">
         <v>124</v>
@@ -964,25 +967,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>300058445</v>
+        <v>300052629</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>26.5719146904698</v>
+        <v>3.2776037760818699</v>
       </c>
       <c r="D7">
-        <v>26.5719146904698</v>
+        <v>3.2776037760818699</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>61.382159999999999</v>
+        <v>8.4311900000000009</v>
       </c>
       <c r="H7">
-        <v>0.39382778318651501</v>
+        <v>0.39306195210877698</v>
       </c>
       <c r="I7" t="s">
         <v>124</v>
@@ -990,25 +993,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>300051955</v>
+        <v>300058444</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>5.2159550449987098</v>
+        <v>17.156825929566502</v>
       </c>
       <c r="D8">
-        <v>5.2159550449987098</v>
+        <v>17.156825929566502</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>29.472559</v>
+        <v>84.311942000000002</v>
       </c>
       <c r="H8">
-        <v>1.3006756556157899</v>
+        <v>0.69850603132827804</v>
       </c>
       <c r="I8" t="s">
         <v>124</v>
@@ -1016,25 +1019,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>300058446</v>
+        <v>300058445</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>1.8825448613376801</v>
+        <v>26.5719146904698</v>
       </c>
       <c r="D9">
-        <v>1.8825448613376801</v>
+        <v>26.5719146904698</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>68.180408999999997</v>
+        <v>61.382159999999999</v>
       </c>
       <c r="H9">
-        <v>0.96124386698824305</v>
+        <v>0.39382778318651501</v>
       </c>
       <c r="I9" t="s">
         <v>124</v>
@@ -1042,25 +1045,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>300052695</v>
+        <v>300051955</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>13.663415208630999</v>
+        <v>5.2159550449987098</v>
       </c>
       <c r="D10">
-        <v>13.663415208630999</v>
+        <v>5.2159550449987098</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>60.307740000000003</v>
+        <v>29.472559</v>
       </c>
       <c r="H10">
-        <v>0.56440516590407797</v>
+        <v>1.3006756556157899</v>
       </c>
       <c r="I10" t="s">
         <v>125</v>
@@ -1068,25 +1071,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>300052696</v>
+        <v>300058446</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>5.7090839316697002</v>
+        <v>1.8825448613376801</v>
       </c>
       <c r="D11">
-        <v>5.7090839316697002</v>
+        <v>1.8825448613376801</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>14.948404999999999</v>
+        <v>68.180408999999997</v>
       </c>
       <c r="H11">
-        <v>0.67072306376499702</v>
+        <v>0.96124386698824305</v>
       </c>
       <c r="I11" t="s">
         <v>125</v>
@@ -1094,25 +1097,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>300052694</v>
+        <v>300052695</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>8.0609967311568607</v>
+        <v>13.663415208630999</v>
       </c>
       <c r="D12">
-        <v>8.0609967311568607</v>
+        <v>13.663415208630999</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12">
-        <v>26.337693000000002</v>
+        <v>60.307740000000003</v>
       </c>
       <c r="H12">
-        <v>0.58439059184113096</v>
+        <v>0.56440516590407797</v>
       </c>
       <c r="I12" t="s">
         <v>125</v>
@@ -1120,25 +1123,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>300052867</v>
+        <v>300052696</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>10.636641043170901</v>
+        <v>5.7090839316697002</v>
       </c>
       <c r="D13">
-        <v>10.636641043170901</v>
+        <v>5.7090839316697002</v>
       </c>
       <c r="E13">
         <v>0.5</v>
       </c>
       <c r="F13">
-        <v>69.483360000000005</v>
+        <v>14.948404999999999</v>
       </c>
       <c r="H13">
-        <v>0.59276062642911898</v>
+        <v>0.67072306376499702</v>
       </c>
       <c r="I13" t="s">
         <v>125</v>
@@ -1146,25 +1149,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>300052698</v>
+        <v>300052694</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>12.8117525413923</v>
+        <v>8.0609967311568607</v>
       </c>
       <c r="D14">
-        <v>12.8117525413923</v>
+        <v>8.0609967311568607</v>
       </c>
       <c r="E14">
         <v>0.5</v>
       </c>
       <c r="F14">
-        <v>22.678353999999999</v>
+        <v>26.337693000000002</v>
       </c>
       <c r="H14">
-        <v>0.51203716107438801</v>
+        <v>0.58439059184113096</v>
       </c>
       <c r="I14" t="s">
         <v>125</v>
@@ -1172,25 +1175,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>300052697</v>
+        <v>300052867</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>18.224624077062</v>
+        <v>10.636641043170901</v>
       </c>
       <c r="D15">
-        <v>18.224624077062</v>
+        <v>10.636641043170901</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15">
-        <v>29.568916000000002</v>
+        <v>69.483360000000005</v>
       </c>
       <c r="H15">
-        <v>0.64562461471363997</v>
+        <v>0.59276062642911898</v>
       </c>
       <c r="I15" t="s">
         <v>125</v>
@@ -1198,25 +1201,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>300058397</v>
+        <v>300052698</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>19.111159372028901</v>
+        <v>12.8117525413923</v>
       </c>
       <c r="D16">
-        <v>19.111159372028901</v>
+        <v>12.8117525413923</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>42.862273999999999</v>
+        <v>22.678353999999999</v>
       </c>
       <c r="H16">
-        <v>0.50552455523008399</v>
+        <v>0.51203716107438801</v>
       </c>
       <c r="I16" t="s">
         <v>126</v>
@@ -1224,25 +1227,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>300058394</v>
+        <v>300052697</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>16.755642261046699</v>
+        <v>18.224624077062</v>
       </c>
       <c r="D17">
-        <v>16.755642261046699</v>
+        <v>18.224624077062</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="F17">
-        <v>73.905906000000002</v>
+        <v>29.568916000000002</v>
       </c>
       <c r="H17">
-        <v>0.540878180967026</v>
+        <v>0.64562461471363997</v>
       </c>
       <c r="I17" t="s">
         <v>126</v>
@@ -1250,25 +1253,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>300052023</v>
+        <v>300058397</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>16.464157948079901</v>
+        <v>19.111159372028901</v>
       </c>
       <c r="D18">
-        <v>16.464157948079901</v>
+        <v>19.111159372028901</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>5.8925729999999996</v>
+        <v>42.862273999999999</v>
       </c>
       <c r="H18">
-        <v>0.33630130674664499</v>
+        <v>0.50552455523008399</v>
       </c>
       <c r="I18" t="s">
         <v>126</v>
@@ -1276,25 +1279,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>300058395</v>
+        <v>300058394</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>17.453162361949399</v>
+        <v>16.755642261046699</v>
       </c>
       <c r="D19">
-        <v>17.453162361949399</v>
+        <v>16.755642261046699</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F19">
-        <v>35.578780000000002</v>
+        <v>73.905906000000002</v>
       </c>
       <c r="H19">
-        <v>0.63694272260038098</v>
+        <v>0.540878180967026</v>
       </c>
       <c r="I19" t="s">
         <v>126</v>
@@ -1302,25 +1305,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>300054823</v>
+        <v>300052023</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>19.816267680145</v>
+        <v>16.464157948079901</v>
       </c>
       <c r="D20">
-        <v>19.816267680145</v>
+        <v>16.464157948079901</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>40.512278999999999</v>
+        <v>5.8925729999999996</v>
       </c>
       <c r="H20">
-        <v>0.61918071802378705</v>
+        <v>0.33630130674664499</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -1328,25 +1331,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>300052892</v>
+        <v>300058395</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>16.1620557065376</v>
+        <v>17.453162361949399</v>
       </c>
       <c r="D21">
-        <v>16.1620557065376</v>
+        <v>17.453162361949399</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>64.348654999999994</v>
+        <v>35.578780000000002</v>
       </c>
       <c r="H21">
-        <v>0.67178610026891805</v>
+        <v>0.63694272260038098</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -1354,25 +1357,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>300050336</v>
+        <v>300054823</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>12.786443307716601</v>
+        <v>19.816267680145</v>
       </c>
       <c r="D22">
-        <v>12.786443307716601</v>
+        <v>19.816267680145</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>4.1248069999999997</v>
+        <v>40.512278999999999</v>
       </c>
       <c r="H22">
-        <v>0.31616024701276901</v>
+        <v>0.61918071802378705</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
@@ -1380,25 +1383,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>300052894</v>
+        <v>300052892</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>24.4888152453549</v>
+        <v>16.1620557065376</v>
       </c>
       <c r="D23">
-        <v>24.4888152453549</v>
+        <v>16.1620557065376</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>15.55646</v>
+        <v>64.348654999999994</v>
       </c>
       <c r="H23">
-        <v>0.78117258039425397</v>
+        <v>0.67178610026891805</v>
       </c>
       <c r="I23" t="s">
         <v>127</v>
@@ -1406,25 +1409,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>300059433</v>
+        <v>300050336</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>18.821245267442499</v>
+        <v>12.786443307716601</v>
       </c>
       <c r="D24">
-        <v>18.821245267442499</v>
+        <v>12.786443307716601</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>31.748184999999999</v>
+        <v>4.1248069999999997</v>
       </c>
       <c r="H24">
-        <v>0.71570989018742304</v>
+        <v>0.31616024701276901</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
@@ -1432,25 +1435,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>300054822</v>
+        <v>300052894</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>10.337944765352001</v>
+        <v>24.4888152453549</v>
       </c>
       <c r="D25">
-        <v>10.337944765352001</v>
+        <v>24.4888152453549</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>41.707495999999999</v>
+        <v>15.55646</v>
       </c>
       <c r="H25">
-        <v>0.98269385436133605</v>
+        <v>0.78117258039425397</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -1458,25 +1461,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>300058257</v>
+        <v>300059433</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>107.67801652031</v>
+        <v>18.821245267442499</v>
       </c>
       <c r="D26">
-        <v>107.67801652031</v>
+        <v>18.821245267442499</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>5.8143200000000004</v>
+        <v>31.748184999999999</v>
       </c>
       <c r="H26">
-        <v>6.9779441104032794E-2</v>
+        <v>0.71570989018742304</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -1484,25 +1487,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>300058259</v>
+        <v>300054822</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>53.532283492477397</v>
+        <v>10.337944765352001</v>
       </c>
       <c r="D27">
-        <v>53.532283492477397</v>
+        <v>10.337944765352001</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F27">
-        <v>17.425241</v>
+        <v>41.707495999999999</v>
       </c>
       <c r="H27">
-        <v>1.0889800605914099</v>
+        <v>0.98269385436133605</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -1510,25 +1513,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>300054821</v>
+        <v>300058257</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>6.7989949522222703</v>
+        <v>107.67801652031</v>
       </c>
       <c r="D28">
-        <v>6.7989949522222703</v>
+        <v>107.67801652031</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>76.884596000000002</v>
+        <v>5.8143200000000004</v>
       </c>
       <c r="H28">
-        <v>0.59100212999753599</v>
+        <v>6.9779441104032794E-2</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -1536,19 +1539,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>300058253</v>
+        <v>300058259</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>53.532283492477397</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>53.532283492477397</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>17.425241</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1.0889800605914099</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -1556,25 +1565,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>300054910</v>
+        <v>300054821</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>16.906426017233901</v>
+        <v>6.7989949522222703</v>
       </c>
       <c r="D30">
-        <v>16.906426017233901</v>
+        <v>6.7989949522222703</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>14.620575000000001</v>
+        <v>76.884596000000002</v>
       </c>
       <c r="H30">
-        <v>0.46219249242933302</v>
+        <v>0.59100212999753599</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -1582,25 +1591,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>300059545</v>
+        <v>300058253</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>7.0164200937049701</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>7.0164200937049701</v>
-      </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-      <c r="F31">
-        <v>61.479683999999999</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.67590458012113397</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -1608,25 +1611,25 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>300060190</v>
+        <v>300054910</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>16.906426017233901</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>16.906426017233901</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>11.401439</v>
+        <v>14.620575000000001</v>
       </c>
       <c r="H32">
-        <v>1.0439082294787501</v>
+        <v>0.46219249242933302</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -1634,25 +1637,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>300060191</v>
+        <v>300059545</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>17.552234399192798</v>
+        <v>7.0164200937049701</v>
       </c>
       <c r="D33">
-        <v>17.552234399192798</v>
+        <v>7.0164200937049701</v>
       </c>
       <c r="E33">
         <v>0.5</v>
       </c>
       <c r="F33">
-        <v>15.980803999999999</v>
+        <v>61.479683999999999</v>
       </c>
       <c r="H33">
-        <v>7.4113918173328505E-2</v>
+        <v>0.67590458012113397</v>
       </c>
       <c r="I33" t="s">
         <v>128</v>
@@ -1660,10 +1663,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>300060192</v>
+        <v>300060190</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1675,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>6.7503039999999999</v>
+        <v>11.401439</v>
       </c>
       <c r="H34">
-        <v>0.97011067945976903</v>
+        <v>1.0439082294787501</v>
       </c>
       <c r="I34" t="s">
         <v>128</v>
@@ -1686,19 +1689,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>300059547</v>
+        <v>300060191</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>17.552234399192798</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>17.552234399192798</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
       </c>
       <c r="F35">
-        <v>6.7021319999999998</v>
+        <v>15.980803999999999</v>
+      </c>
+      <c r="H35">
+        <v>7.4113918173328505E-2</v>
       </c>
       <c r="I35" t="s">
         <v>128</v>
@@ -1706,10 +1715,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>300059753</v>
+        <v>300060192</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1717,11 +1726,14 @@
       <c r="D36">
         <v>0</v>
       </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
       <c r="F36">
-        <v>13.968730000000001</v>
+        <v>6.7503039999999999</v>
       </c>
       <c r="H36">
-        <v>0.69467159863495098</v>
+        <v>0.97011067945976903</v>
       </c>
       <c r="I36" t="s">
         <v>128</v>
@@ -1729,10 +1741,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>300059867</v>
+        <v>300059547</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1741,10 +1753,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>6.3556150000000002</v>
-      </c>
-      <c r="H37">
-        <v>0.14206020975153499</v>
+        <v>6.7021319999999998</v>
       </c>
       <c r="I37" t="s">
         <v>128</v>
@@ -1752,19 +1761,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>300052775</v>
+        <v>300059753</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>13.968730000000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.69467159863495098</v>
       </c>
       <c r="I38" t="s">
         <v>129</v>
@@ -1772,25 +1784,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>300052773</v>
+        <v>300059867</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>10.846791092606701</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>10.846791092606701</v>
-      </c>
-      <c r="E39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>95.482360999999997</v>
+        <v>6.3556150000000002</v>
       </c>
       <c r="H39">
-        <v>0.538883092763071</v>
+        <v>0.14206020975153499</v>
       </c>
       <c r="I39" t="s">
         <v>129</v>
@@ -1798,25 +1807,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>300052777</v>
+        <v>300052775</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40">
-        <v>9.2867185234388696</v>
-      </c>
-      <c r="D40">
-        <v>9.2867185234388696</v>
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>0.5</v>
-      </c>
-      <c r="F40">
-        <v>134.769375</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0.56063374932175802</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
         <v>129</v>
@@ -1824,25 +1827,25 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>300051988</v>
+        <v>300052773</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>11.8837656490765</v>
+        <v>10.846791092606701</v>
       </c>
       <c r="D41">
-        <v>11.8837656490765</v>
+        <v>10.846791092606701</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F41">
-        <v>14.089929</v>
+        <v>95.482360999999997</v>
       </c>
       <c r="H41">
-        <v>0.50044822795061605</v>
+        <v>0.538883092763071</v>
       </c>
       <c r="I41" t="s">
         <v>129</v>
@@ -1850,19 +1853,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>300052778</v>
+        <v>300052777</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>9.2867185234388696</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>9.2867185234388696</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>134.769375</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.56063374932175802</v>
       </c>
       <c r="I42" t="s">
         <v>129</v>
@@ -1870,25 +1879,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>300060195</v>
+        <v>300051988</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>23.371771556709898</v>
+        <v>11.8837656490765</v>
       </c>
       <c r="D43">
-        <v>23.371771556709898</v>
+        <v>11.8837656490765</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>12.473729000000001</v>
+        <v>14.089929</v>
       </c>
       <c r="H43">
-        <v>1.18126263605695</v>
+        <v>0.50044822795061605</v>
       </c>
       <c r="I43" t="s">
         <v>129</v>
@@ -1896,25 +1905,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>300052776</v>
+        <v>300052778</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>26.231586361205199</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>26.231586361205199</v>
-      </c>
-      <c r="E44">
-        <v>0.5</v>
-      </c>
-      <c r="F44">
-        <v>31.330110999999999</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0.47742977993279401</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>129</v>
@@ -1922,25 +1925,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>300059432</v>
+        <v>300060195</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>14.642406460432101</v>
+        <v>23.371771556709898</v>
       </c>
       <c r="D45">
-        <v>14.642406460432101</v>
+        <v>23.371771556709898</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>62.250599999999999</v>
+        <v>12.473729000000001</v>
       </c>
       <c r="H45">
-        <v>0.57767025538709704</v>
+        <v>1.18126263605695</v>
       </c>
       <c r="I45" t="s">
         <v>129</v>
@@ -1948,25 +1951,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>300060193</v>
+        <v>300052776</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>26.231586361205199</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>26.231586361205199</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F46">
-        <v>15.657314</v>
+        <v>31.330110999999999</v>
       </c>
       <c r="H46">
-        <v>1.0725604659905299</v>
+        <v>0.47742977993279401</v>
       </c>
       <c r="I46" t="s">
         <v>129</v>
@@ -1974,25 +1977,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>300060194</v>
+        <v>300059432</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>14.642406460432101</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>14.642406460432101</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>11.392488999999999</v>
+        <v>62.250599999999999</v>
       </c>
       <c r="H47">
-        <v>3.3917083439799697E-2</v>
+        <v>0.57767025538709704</v>
       </c>
       <c r="I47" t="s">
         <v>129</v>
@@ -2000,25 +2003,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>300060231</v>
+        <v>300060193</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>10.3124240675448</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>10.3124240675448</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>25.533476</v>
+        <v>15.657314</v>
       </c>
       <c r="H48">
-        <v>0.80759509594385004</v>
+        <v>1.0725604659905299</v>
       </c>
       <c r="I48" t="s">
         <v>129</v>
@@ -2026,19 +2029,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>300052774</v>
+        <v>300060194</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
+      <c r="F49">
+        <v>11.392488999999999</v>
+      </c>
       <c r="H49">
-        <v>0</v>
+        <v>3.3917083439799697E-2</v>
       </c>
       <c r="I49" t="s">
         <v>129</v>
@@ -2046,19 +2055,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>300059431</v>
+        <v>300060231</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>10.3124240675448</v>
+      </c>
+      <c r="D50">
+        <v>10.3124240675448</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
+      <c r="F50">
+        <v>25.533476</v>
+      </c>
       <c r="H50">
-        <v>0</v>
+        <v>0.80759509594385004</v>
       </c>
       <c r="I50" t="s">
         <v>129</v>
@@ -2066,25 +2081,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>300060080</v>
+        <v>300052774</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51">
-        <v>50.699151320740199</v>
-      </c>
-      <c r="D51">
-        <v>56.670349931878803</v>
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51">
-        <v>2.2855240000000001</v>
-      </c>
       <c r="H51">
-        <v>1.4330779287375699</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>129</v>
@@ -2092,25 +2101,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>300060230</v>
+        <v>300059431</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52">
-        <v>1.93626203209541</v>
-      </c>
-      <c r="D52">
-        <v>1.93626203209541</v>
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>55.627688999999997</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0.28959736220571702</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>129</v>
@@ -2118,25 +2121,25 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>300052772</v>
+        <v>300060080</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>10.1101181919488</v>
+        <v>50.699151320740199</v>
       </c>
       <c r="D53">
-        <v>10.1101181919488</v>
+        <v>56.670349931878803</v>
       </c>
       <c r="E53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>38.482559999999999</v>
+        <v>2.2855240000000001</v>
       </c>
       <c r="H53">
-        <v>0.53030463669776695</v>
+        <v>1.4330779287375699</v>
       </c>
       <c r="I53" t="s">
         <v>129</v>
@@ -2144,25 +2147,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>300054967</v>
+        <v>300060230</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>9.6237617857133895</v>
+        <v>1.93626203209541</v>
       </c>
       <c r="D54">
-        <v>9.6237617857133895</v>
+        <v>1.93626203209541</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>18.192975000000001</v>
+        <v>55.627688999999997</v>
       </c>
       <c r="H54">
-        <v>0.55341416123531195</v>
+        <v>0.28959736220571702</v>
       </c>
       <c r="I54" t="s">
         <v>129</v>
@@ -2170,25 +2173,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>300056674</v>
+        <v>300052772</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>6.34640568292326</v>
+        <v>10.1101181919488</v>
       </c>
       <c r="D55">
-        <v>6.34640568292326</v>
+        <v>10.1101181919488</v>
       </c>
       <c r="E55">
         <v>0.5</v>
       </c>
       <c r="F55">
-        <v>14.713946999999999</v>
+        <v>38.482559999999999</v>
       </c>
       <c r="H55">
-        <v>0.49536334472320698</v>
+        <v>0.53030463669776695</v>
       </c>
       <c r="I55" t="s">
         <v>129</v>
@@ -2196,19 +2199,25 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>300058328</v>
+        <v>300054967</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>9.6237617857133895</v>
+      </c>
+      <c r="D56">
+        <v>9.6237617857133895</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
+      <c r="F56">
+        <v>18.192975000000001</v>
+      </c>
       <c r="H56">
-        <v>0</v>
+        <v>0.55341416123531195</v>
       </c>
       <c r="I56" t="s">
         <v>129</v>
@@ -2216,22 +2225,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>300058651</v>
+        <v>300056674</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>6.34640568292326</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>6.34640568292326</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
       </c>
       <c r="F57">
-        <v>0.81964400000000004</v>
+        <v>14.713946999999999</v>
       </c>
       <c r="H57">
-        <v>1.7007383693408401E-2</v>
+        <v>0.49536334472320698</v>
       </c>
       <c r="I57" t="s">
         <v>129</v>
@@ -2239,25 +2251,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>300060232</v>
+        <v>300058328</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58">
-        <v>3.34298589379876</v>
-      </c>
-      <c r="D58">
-        <v>3.34298589379876</v>
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58">
-        <v>22.602879000000001</v>
-      </c>
       <c r="H58">
-        <v>0.30237387016052197</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
         <v>129</v>
@@ -2265,19 +2271,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>300059430</v>
+        <v>300058651</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.81964400000000004</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1.7007383693408401E-2</v>
       </c>
       <c r="I59" t="s">
         <v>129</v>
@@ -2285,25 +2294,25 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>300060098</v>
+        <v>300060232</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3.34298589379876</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>3.34298589379876</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1.3470040000000001</v>
+        <v>22.602879000000001</v>
       </c>
       <c r="H60">
-        <v>5.6324732517498104</v>
+        <v>0.30237387016052197</v>
       </c>
       <c r="I60" t="s">
         <v>129</v>
@@ -2311,25 +2320,19 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>300060099</v>
+        <v>300059430</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61">
-        <v>0.40718199999999999</v>
-      </c>
       <c r="H61">
-        <v>3.88647828243881</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
         <v>129</v>
@@ -2337,25 +2340,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>300060233</v>
+        <v>300060098</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>43.567617294125903</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>43.567617294125903</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>3.428407</v>
+        <v>1.3470040000000001</v>
       </c>
       <c r="H62">
-        <v>1.9048275190197701</v>
+        <v>5.6324732517498104</v>
       </c>
       <c r="I62" t="s">
         <v>129</v>
@@ -2363,10 +2366,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>300059801</v>
+        <v>300060099</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2374,11 +2377,14 @@
       <c r="D63">
         <v>0</v>
       </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
       <c r="F63">
-        <v>3.9053659999999999</v>
+        <v>0.40718199999999999</v>
       </c>
       <c r="H63">
-        <v>0.73062550347393795</v>
+        <v>3.88647828243881</v>
       </c>
       <c r="I63" t="s">
         <v>129</v>
@@ -2386,25 +2392,25 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>300059811</v>
+        <v>300060233</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>3.6620544650568601</v>
+        <v>43.567617294125903</v>
       </c>
       <c r="D64">
-        <v>3.6620544650568601</v>
+        <v>43.567617294125903</v>
       </c>
       <c r="E64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>18.960570000000001</v>
+        <v>3.428407</v>
       </c>
       <c r="H64">
-        <v>0.45442515704960401</v>
+        <v>1.9048275190197701</v>
       </c>
       <c r="I64" t="s">
         <v>129</v>
@@ -2412,25 +2418,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>300052759</v>
+        <v>300059801</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>15.6431684722399</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>15.6431684722399</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>131.15238400000001</v>
+        <v>3.9053659999999999</v>
       </c>
       <c r="H65">
-        <v>0.414729937352873</v>
+        <v>0.73062550347393795</v>
       </c>
       <c r="I65" t="s">
         <v>130</v>
@@ -2438,25 +2441,25 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>300052758</v>
+        <v>300059811</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66">
-        <v>15.7011734709446</v>
+        <v>3.6620544650568601</v>
       </c>
       <c r="D66">
-        <v>15.7011734709446</v>
+        <v>3.6620544650568601</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F66">
-        <v>33.784959999999998</v>
+        <v>18.960570000000001</v>
       </c>
       <c r="H66">
-        <v>0.84493218284112204</v>
+        <v>0.45442515704960401</v>
       </c>
       <c r="I66" t="s">
         <v>130</v>
@@ -2464,25 +2467,25 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>300060234</v>
+        <v>300052759</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>15.6431684722399</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>15.6431684722399</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>33.433998000000003</v>
+        <v>131.15238400000001</v>
       </c>
       <c r="H67">
-        <v>4.4870493800950803E-2</v>
+        <v>0.414729937352873</v>
       </c>
       <c r="I67" t="s">
         <v>130</v>
@@ -2490,19 +2493,25 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>300052739</v>
+        <v>300052758</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="C68">
+        <v>15.7011734709446</v>
+      </c>
+      <c r="D68">
+        <v>15.7011734709446</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
+      <c r="F68">
+        <v>33.784959999999998</v>
+      </c>
       <c r="H68">
-        <v>0</v>
+        <v>0.84493218284112204</v>
       </c>
       <c r="I68" t="s">
         <v>130</v>
@@ -2510,25 +2519,25 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>300052656</v>
+        <v>300060234</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C69">
-        <v>13.7637796843432</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>13.7637796843432</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>21.495456000000001</v>
+        <v>33.433998000000003</v>
       </c>
       <c r="H69">
-        <v>0.66064753406487398</v>
+        <v>4.4870493800950803E-2</v>
       </c>
       <c r="I69" t="s">
         <v>130</v>
@@ -2536,10 +2545,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>300051086</v>
+        <v>300052739</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -2556,25 +2565,25 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>300052790</v>
+        <v>300052656</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71">
-        <v>1.74604783850194</v>
+        <v>13.7637796843432</v>
       </c>
       <c r="D71">
-        <v>1.74604783850194</v>
+        <v>13.7637796843432</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>17.715899</v>
+        <v>21.495456000000001</v>
       </c>
       <c r="H71">
-        <v>0.44624323044515002</v>
+        <v>0.66064753406487398</v>
       </c>
       <c r="I71" t="s">
         <v>130</v>
@@ -2582,10 +2591,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>300052657</v>
+        <v>300051086</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -2602,19 +2611,25 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>300052738</v>
+        <v>300052790</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" t="s">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="C73">
+        <v>1.74604783850194</v>
+      </c>
+      <c r="D73">
+        <v>1.74604783850194</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>17.715899</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>0.44624323044515002</v>
       </c>
       <c r="I73" t="s">
         <v>130</v>
@@ -2622,25 +2637,19 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>300060093</v>
+        <v>300052657</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74">
-        <v>15.261498752997801</v>
-      </c>
-      <c r="D74">
-        <v>15.261498752997801</v>
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74">
-        <v>12.180768</v>
-      </c>
       <c r="H74">
-        <v>2.56535548497435E-2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="s">
         <v>130</v>
@@ -2648,25 +2657,19 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>300060091</v>
+        <v>300052738</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75">
-        <v>16.4981001047571</v>
-      </c>
-      <c r="D75">
-        <v>16.4981001047571</v>
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75">
-        <v>23.808817999999999</v>
-      </c>
       <c r="H75">
-        <v>1.5624463171586299E-4</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
         <v>130</v>
@@ -2674,25 +2677,25 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>300060092</v>
+        <v>300060093</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C76">
-        <v>15.8384753324267</v>
+        <v>15.261498752997801</v>
       </c>
       <c r="D76">
-        <v>15.8384753324267</v>
+        <v>15.261498752997801</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>31.115041999999999</v>
+        <v>12.180768</v>
       </c>
       <c r="H76">
-        <v>1.18042585319345E-2</v>
+        <v>2.56535548497435E-2</v>
       </c>
       <c r="I76" t="s">
         <v>130</v>
@@ -2700,25 +2703,25 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>300060094</v>
+        <v>300060091</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C77">
-        <v>21.655784502483101</v>
+        <v>16.4981001047571</v>
       </c>
       <c r="D77">
-        <v>21.655784502483101</v>
+        <v>16.4981001047571</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>37.283814999999997</v>
+        <v>23.808817999999999</v>
       </c>
       <c r="H77">
-        <v>0.11486860987804</v>
+        <v>1.5624463171586299E-4</v>
       </c>
       <c r="I77" t="s">
         <v>130</v>
@@ -2726,25 +2729,25 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>300052666</v>
+        <v>300060092</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C78">
-        <v>18.277229598303201</v>
+        <v>15.8384753324267</v>
       </c>
       <c r="D78">
-        <v>18.277229598303201</v>
+        <v>15.8384753324267</v>
       </c>
       <c r="E78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>89.614418000000001</v>
+        <v>31.115041999999999</v>
       </c>
       <c r="H78">
-        <v>0.43648021013761401</v>
+        <v>1.18042585319345E-2</v>
       </c>
       <c r="I78" t="s">
         <v>130</v>
@@ -2752,19 +2755,25 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>300052664</v>
+        <v>300060094</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="C79">
+        <v>21.655784502483101</v>
+      </c>
+      <c r="D79">
+        <v>21.655784502483101</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
+      <c r="F79">
+        <v>37.283814999999997</v>
+      </c>
       <c r="H79">
-        <v>0</v>
+        <v>0.11486860987804</v>
       </c>
       <c r="I79" t="s">
         <v>130</v>
@@ -2772,25 +2781,25 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>300052667</v>
+        <v>300052666</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C80">
-        <v>9.9303367175108495</v>
+        <v>18.277229598303201</v>
       </c>
       <c r="D80">
-        <v>11.503798346534101</v>
+        <v>18.277229598303201</v>
       </c>
       <c r="E80">
         <v>0.5</v>
       </c>
       <c r="F80">
-        <v>18.279579999999999</v>
+        <v>89.614418000000001</v>
       </c>
       <c r="H80">
-        <v>0.63808905893899104</v>
+        <v>0.43648021013761401</v>
       </c>
       <c r="I80" t="s">
         <v>130</v>
@@ -2798,25 +2807,19 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>300052665</v>
+        <v>300052664</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81">
-        <v>11.2362861354563</v>
-      </c>
-      <c r="D81">
-        <v>11.2362861354563</v>
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81">
-        <v>27.832564000000001</v>
-      </c>
       <c r="H81">
-        <v>0.27825140364358802</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
         <v>130</v>
@@ -2824,25 +2827,25 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>300060096</v>
+        <v>300052667</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>9.9303367175108495</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>11.503798346534101</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F82">
-        <v>27.483000000000001</v>
+        <v>18.279579999999999</v>
       </c>
       <c r="H82">
-        <v>0.64213131754175301</v>
+        <v>0.63808905893899104</v>
       </c>
       <c r="I82" t="s">
         <v>130</v>
@@ -2850,25 +2853,25 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>300060097</v>
+        <v>300052665</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C83">
-        <v>13.5227047766666</v>
+        <v>11.2362861354563</v>
       </c>
       <c r="D83">
-        <v>13.5227047766666</v>
+        <v>11.2362861354563</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>29.575374</v>
+        <v>27.832564000000001</v>
       </c>
       <c r="H83">
-        <v>0.109797089970866</v>
+        <v>0.27825140364358802</v>
       </c>
       <c r="I83" t="s">
         <v>130</v>
@@ -2876,25 +2879,25 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>300052720</v>
+        <v>300060096</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C84">
-        <v>14.291097312597101</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>14.291097312597101</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>205.811003</v>
+        <v>27.483000000000001</v>
       </c>
       <c r="H84">
-        <v>0.40248576991775298</v>
+        <v>0.64213131754175301</v>
       </c>
       <c r="I84" t="s">
         <v>130</v>
@@ -2902,19 +2905,25 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>300052669</v>
+        <v>300060097</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="C85">
+        <v>13.5227047766666</v>
+      </c>
+      <c r="D85">
+        <v>13.5227047766666</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
+      <c r="F85">
+        <v>29.575374</v>
+      </c>
       <c r="H85">
-        <v>0</v>
+        <v>0.109797089970866</v>
       </c>
       <c r="I85" t="s">
         <v>130</v>
@@ -2922,19 +2931,25 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>300052026</v>
+        <v>300052720</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="C86">
+        <v>14.291097312597101</v>
+      </c>
+      <c r="D86">
+        <v>14.291097312597101</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="F86">
+        <v>205.811003</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>0.40248576991775298</v>
       </c>
       <c r="I86" t="s">
         <v>130</v>
@@ -2942,10 +2957,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>300052721</v>
+        <v>300052669</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -2962,25 +2977,19 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>300060095</v>
+        <v>300052026</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88">
-        <v>12.855411917743901</v>
-      </c>
-      <c r="D88">
-        <v>12.855411917743901</v>
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88">
-        <v>78.840237000000002</v>
-      </c>
       <c r="H88">
-        <v>0.502660018639974</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
         <v>130</v>
@@ -2988,25 +2997,19 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>300060196</v>
+        <v>300052721</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89">
-        <v>15.568729073582301</v>
-      </c>
-      <c r="D89">
-        <v>15.568729073582301</v>
+        <v>94</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>0.5</v>
-      </c>
-      <c r="F89">
-        <v>13.517448</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>0.22922374104934601</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
         <v>130</v>
@@ -3014,25 +3017,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>300060197</v>
+        <v>300060095</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C90">
-        <v>25.462631415513901</v>
+        <v>12.855411917743901</v>
       </c>
       <c r="D90">
-        <v>25.462631415513901</v>
+        <v>12.855411917743901</v>
       </c>
       <c r="E90">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>7.7734350000000001</v>
+        <v>78.840237000000002</v>
       </c>
       <c r="H90">
-        <v>0.69466587165133598</v>
+        <v>0.502660018639974</v>
       </c>
       <c r="I90" t="s">
         <v>130</v>
@@ -3040,25 +3043,25 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>300060198</v>
+        <v>300060196</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C91">
-        <v>12.946255752935601</v>
+        <v>15.568729073582301</v>
       </c>
       <c r="D91">
-        <v>12.946255752935601</v>
+        <v>15.568729073582301</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F91">
-        <v>8.9830860000000001</v>
+        <v>13.517448</v>
       </c>
       <c r="H91">
-        <v>4.3715489309575799E-2</v>
+        <v>0.22922374104934601</v>
       </c>
       <c r="I91" t="s">
         <v>130</v>
@@ -3066,25 +3069,25 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>300052642</v>
+        <v>300060197</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C92">
-        <v>27.210485997777599</v>
+        <v>25.462631415513901</v>
       </c>
       <c r="D92">
-        <v>27.210485997777599</v>
+        <v>25.462631415513901</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F92">
-        <v>18.263007000000002</v>
+        <v>7.7734350000000001</v>
       </c>
       <c r="H92">
-        <v>0.61109301441980501</v>
+        <v>0.69466587165133598</v>
       </c>
       <c r="I92" t="s">
         <v>130</v>
@@ -3092,25 +3095,25 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>300052622</v>
+        <v>300060198</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C93">
-        <v>27.424245465127701</v>
+        <v>12.946255752935601</v>
       </c>
       <c r="D93">
-        <v>27.424245465127701</v>
+        <v>12.946255752935601</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>31.538837000000001</v>
+        <v>8.9830860000000001</v>
       </c>
       <c r="H93">
-        <v>0.51052548323199098</v>
+        <v>4.3715489309575799E-2</v>
       </c>
       <c r="I93" t="s">
         <v>130</v>
@@ -3118,25 +3121,25 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>300052641</v>
+        <v>300052642</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C94">
-        <v>20.923009261361099</v>
+        <v>27.210485997777599</v>
       </c>
       <c r="D94">
-        <v>20.923009261361099</v>
+        <v>27.210485997777599</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>16.898129999999998</v>
+        <v>18.263007000000002</v>
       </c>
       <c r="H94">
-        <v>0.57414637004212898</v>
+        <v>0.61109301441980501</v>
       </c>
       <c r="I94" t="s">
         <v>130</v>
@@ -3144,25 +3147,25 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>300052643</v>
+        <v>300052622</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C95">
-        <v>40.249850329275603</v>
+        <v>27.424245465127701</v>
       </c>
       <c r="D95">
-        <v>40.249850329275603</v>
+        <v>27.424245465127701</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>13.693185</v>
+        <v>31.538837000000001</v>
       </c>
       <c r="H95">
-        <v>0.90899231990219997</v>
+        <v>0.51052548323199098</v>
       </c>
       <c r="I95" t="s">
         <v>130</v>
@@ -3170,25 +3173,25 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>300052621</v>
+        <v>300052641</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C96">
-        <v>25.7958637313785</v>
+        <v>20.923009261361099</v>
       </c>
       <c r="D96">
-        <v>25.7958637313785</v>
+        <v>20.923009261361099</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>5.3634459999999997</v>
+        <v>16.898129999999998</v>
       </c>
       <c r="H96">
-        <v>0.40995658388282502</v>
+        <v>0.57414637004212898</v>
       </c>
       <c r="I96" t="s">
         <v>130</v>
@@ -3196,25 +3199,25 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>300047036</v>
+        <v>300052643</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C97">
-        <v>35.623408024582702</v>
+        <v>40.249850329275603</v>
       </c>
       <c r="D97">
-        <v>35.623408024582702</v>
+        <v>40.249850329275603</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>11.841271000000001</v>
+        <v>13.693185</v>
       </c>
       <c r="H97">
-        <v>0.61868358557117697</v>
+        <v>0.90899231990219997</v>
       </c>
       <c r="I97" t="s">
         <v>130</v>
@@ -3222,25 +3225,25 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>300047496</v>
+        <v>300052621</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C98">
-        <v>34.0634131086548</v>
+        <v>25.7958637313785</v>
       </c>
       <c r="D98">
-        <v>34.0634131086548</v>
+        <v>25.7958637313785</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>10.052301999999999</v>
+        <v>5.3634459999999997</v>
       </c>
       <c r="H98">
-        <v>0.69451554479760003</v>
+        <v>0.40995658388282502</v>
       </c>
       <c r="I98" t="s">
         <v>130</v>
@@ -3248,25 +3251,25 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>300053042</v>
+        <v>300047036</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C99">
-        <v>26.781038675170201</v>
+        <v>35.623408024582702</v>
       </c>
       <c r="D99">
-        <v>26.781038675170201</v>
+        <v>35.623408024582702</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99">
-        <v>3.3300339999999999</v>
+        <v>11.841271000000001</v>
       </c>
       <c r="H99">
-        <v>0.65668999175383802</v>
+        <v>0.61868358557117697</v>
       </c>
       <c r="I99" t="s">
         <v>130</v>
@@ -3274,25 +3277,25 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>300053043</v>
+        <v>300047496</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C100">
-        <v>1.69865955382225</v>
+        <v>34.0634131086548</v>
       </c>
       <c r="D100">
-        <v>1.69865955382225</v>
+        <v>34.0634131086548</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>4.5364089999999999</v>
+        <v>10.052301999999999</v>
       </c>
       <c r="H100">
-        <v>0.87584695295331605</v>
+        <v>0.69451554479760003</v>
       </c>
       <c r="I100" t="s">
         <v>130</v>
@@ -3300,25 +3303,25 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>300033488</v>
+        <v>300053042</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C101">
-        <v>16.957541204738</v>
+        <v>26.781038675170201</v>
       </c>
       <c r="D101">
-        <v>16.957541204738</v>
+        <v>26.781038675170201</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>5.3726399999999996</v>
+        <v>3.3300339999999999</v>
       </c>
       <c r="H101">
-        <v>0.59233449477351896</v>
+        <v>0.65668999175383802</v>
       </c>
       <c r="I101" t="s">
         <v>131</v>
@@ -3326,25 +3329,25 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>300052821</v>
+        <v>300053043</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C102">
-        <v>17.947732930255601</v>
+        <v>1.69865955382225</v>
       </c>
       <c r="D102">
-        <v>17.947732930255601</v>
+        <v>1.69865955382225</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>20.106752</v>
+        <v>4.5364089999999999</v>
       </c>
       <c r="H102">
-        <v>0.54694462835170998</v>
+        <v>0.87584695295331605</v>
       </c>
       <c r="I102" t="s">
         <v>131</v>
@@ -3352,25 +3355,25 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>300052820</v>
+        <v>300033488</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C103">
-        <v>19.694495476237201</v>
+        <v>16.957541204738</v>
       </c>
       <c r="D103">
-        <v>19.694495476237201</v>
+        <v>16.957541204738</v>
       </c>
       <c r="E103">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>17.092616</v>
+        <v>5.3726399999999996</v>
       </c>
       <c r="H103">
-        <v>0.52190957779663405</v>
+        <v>0.59233449477351896</v>
       </c>
       <c r="I103" t="s">
         <v>131</v>
@@ -3378,25 +3381,25 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>300033489</v>
+        <v>300052821</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C104">
-        <v>36.134968845830798</v>
+        <v>17.947732930255601</v>
       </c>
       <c r="D104">
-        <v>36.134968845830798</v>
+        <v>17.947732930255601</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104">
-        <v>13.40964</v>
+        <v>20.106752</v>
       </c>
       <c r="H104">
-        <v>0.72610450392404302</v>
+        <v>0.54694462835170998</v>
       </c>
       <c r="I104" t="s">
         <v>131</v>
@@ -3404,25 +3407,25 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>300052756</v>
+        <v>300052820</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C105">
-        <v>15.034420896951101</v>
+        <v>19.694495476237201</v>
       </c>
       <c r="D105">
-        <v>15.034420896951101</v>
+        <v>19.694495476237201</v>
       </c>
       <c r="E105">
         <v>0.5</v>
       </c>
       <c r="F105">
-        <v>35.190792000000002</v>
+        <v>17.092616</v>
       </c>
       <c r="H105">
-        <v>0.57939360955559105</v>
+        <v>0.52190957779663405</v>
       </c>
       <c r="I105" t="s">
         <v>131</v>
@@ -3430,25 +3433,25 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>300052757</v>
+        <v>300033489</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C106">
-        <v>20.321747388245999</v>
+        <v>36.134968845830798</v>
       </c>
       <c r="D106">
-        <v>20.321747388245999</v>
+        <v>36.134968845830798</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
-        <v>44.001446999999999</v>
+        <v>13.40964</v>
       </c>
       <c r="H106">
-        <v>0.44723456480874402</v>
+        <v>0.72610450392404302</v>
       </c>
       <c r="I106" t="s">
         <v>131</v>
@@ -3456,25 +3459,25 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>300058720</v>
+        <v>300052756</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C107">
-        <v>45.695424999402903</v>
+        <v>15.034420896951101</v>
       </c>
       <c r="D107">
-        <v>45.695424999402903</v>
+        <v>15.034420896951101</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F107">
-        <v>7.2164989999999998</v>
+        <v>35.190792000000002</v>
       </c>
       <c r="H107">
-        <v>0.96204544613669296</v>
+        <v>0.57939360955559105</v>
       </c>
       <c r="I107" t="s">
         <v>131</v>
@@ -3482,25 +3485,25 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>300058721</v>
+        <v>300052757</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C108">
-        <v>75.690576541421095</v>
+        <v>20.321747388245999</v>
       </c>
       <c r="D108">
-        <v>75.690576541421095</v>
+        <v>20.321747388245999</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>3.8906480000000001</v>
+        <v>44.001446999999999</v>
       </c>
       <c r="H108">
-        <v>1.89933604890496</v>
+        <v>0.44723456480874402</v>
       </c>
       <c r="I108" t="s">
         <v>131</v>
@@ -3508,25 +3511,25 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>300058740</v>
+        <v>300058720</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C109">
-        <v>308.11880216003902</v>
+        <v>45.695424999402903</v>
       </c>
       <c r="D109">
-        <v>308.11880216003902</v>
+        <v>45.695424999402903</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0.35299199999999997</v>
+        <v>7.2164989999999998</v>
       </c>
       <c r="H109">
-        <v>4.7661136796301298</v>
+        <v>0.96204544613669296</v>
       </c>
       <c r="I109" t="s">
         <v>131</v>
@@ -3534,19 +3537,25 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>300055380</v>
+        <v>300058721</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" t="s">
-        <v>7</v>
+        <v>115</v>
+      </c>
+      <c r="C110">
+        <v>75.690576541421095</v>
+      </c>
+      <c r="D110">
+        <v>75.690576541421095</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
+      <c r="F110">
+        <v>3.8906480000000001</v>
+      </c>
       <c r="H110">
-        <v>0</v>
+        <v>1.89933604890496</v>
       </c>
       <c r="I110" t="s">
         <v>132</v>
@@ -3554,19 +3563,25 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>300055184</v>
+        <v>300058740</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="C111">
+        <v>308.11880216003902</v>
+      </c>
+      <c r="D111">
+        <v>308.11880216003902</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
+      <c r="F111">
+        <v>0.35299199999999997</v>
+      </c>
       <c r="H111">
-        <v>0</v>
+        <v>4.7661136796301298</v>
       </c>
       <c r="I111" t="s">
         <v>132</v>
@@ -3574,10 +3589,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>300055183</v>
+        <v>300055380</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -3594,19 +3609,19 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>300060199</v>
+        <v>300055184</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>6.1109559999999998</v>
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
       </c>
       <c r="I113" t="s">
         <v>132</v>
@@ -3614,25 +3629,19 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>300060200</v>
+        <v>300055183</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
-      </c>
-      <c r="C114">
-        <v>11.216547337007</v>
-      </c>
-      <c r="D114">
-        <v>11.216547337007</v>
+        <v>119</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
-      <c r="F114">
-        <v>10.349360000000001</v>
-      </c>
       <c r="H114">
-        <v>0.32952762296412502</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>132</v>
@@ -3640,28 +3649,68 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>300060201</v>
+        <v>300060199</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C115">
-        <v>5.0293012296431296</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>5.0293012296431296</v>
-      </c>
-      <c r="E115">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>5.0266409999999997</v>
-      </c>
-      <c r="H115">
-        <v>0.81925763148790598</v>
+        <v>6.1109559999999998</v>
       </c>
       <c r="I115" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>300060200</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116">
+        <v>11.216547337007</v>
+      </c>
+      <c r="D116">
+        <v>11.216547337007</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>10.349360000000001</v>
+      </c>
+      <c r="H116">
+        <v>0.32952762296412502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>300060201</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117">
+        <v>5.0293012296431296</v>
+      </c>
+      <c r="D117">
+        <v>5.0293012296431296</v>
+      </c>
+      <c r="E117">
+        <v>0.5</v>
+      </c>
+      <c r="F117">
+        <v>5.0266409999999997</v>
+      </c>
+      <c r="H117">
+        <v>0.81925763148790598</v>
       </c>
     </row>
   </sheetData>
